--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4035998.848600424</v>
+        <v>4033663.737398444</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>163.5820951301554</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>58.36929648666015</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276185</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216661</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>197.6995498140985</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391402018</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.11388100145385</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,13 +1111,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606671</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>129.2102622465509</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.15794421524365</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991603</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>110.1270172505054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.899958573734</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2397.104888874747</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.639130613667</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.499798637855</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380233</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694951</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.8507152289184</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372449</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372449</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372449</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.8507152289184</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854582</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C5" t="n">
-        <v>728.3028554854582</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D5" t="n">
-        <v>728.3028554854582</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>728.3028554854582</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>317.3169506958506</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525392</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.90269554958</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
         <v>423.1489515180662</v>
@@ -4656,13 +4656,13 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287797</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2047.363946463959</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2294.546680296256</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.7112860448136</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>545.7751031169067</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.349301773071</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.349301773071</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>896.3597508750534</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>896.3597508750534</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1155.076184668035</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>786.1136677276232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2989.112657582733</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2658.049770239163</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2305.281114969048</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>1931.815356707968</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.676024732157</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738568</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459499</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336142</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>285.796379051221</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533107</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845644</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040965</v>
+        <v>362.8175152271522</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5261,37 +5261,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,46 +5741,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473698</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>746.1673476194629</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>596.0507082071272</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6698,22 +6698,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>154.0169020165185</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>36.30694539606372</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900059</v>
       </c>
       <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403371</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819054</v>
+        <v>48293.97000819102</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921024</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810799</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756581</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523374.0598435836</v>
+        <v>-523374.0598435834</v>
       </c>
       <c r="C6" t="n">
-        <v>591377.7237323362</v>
+        <v>591377.7237323361</v>
       </c>
       <c r="D6" t="n">
-        <v>431956.4537344449</v>
+        <v>431956.4537344438</v>
       </c>
       <c r="E6" t="n">
-        <v>371274.407701987</v>
+        <v>371239.6697765521</v>
       </c>
       <c r="F6" t="n">
-        <v>696686.8695093424</v>
+        <v>696652.1315839068</v>
       </c>
       <c r="G6" t="n">
-        <v>696686.8695093422</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="H6" t="n">
-        <v>696686.8695093425</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="I6" t="n">
-        <v>696686.8695093426</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="J6" t="n">
-        <v>529081.6916993599</v>
+        <v>529046.9537739243</v>
       </c>
       <c r="K6" t="n">
-        <v>696686.8695093422</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="L6" t="n">
-        <v>648392.8995011519</v>
+        <v>648358.1615757156</v>
       </c>
       <c r="M6" t="n">
-        <v>611631.8415738302</v>
+        <v>611597.1036483946</v>
       </c>
       <c r="N6" t="n">
-        <v>696686.8695093422</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="O6" t="n">
-        <v>696686.8695093427</v>
+        <v>696652.1315839071</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093426</v>
+        <v>696652.1315839069</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>185.6588735872577</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.8775246119677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.1197118244763</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493414</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>213.8481529588555</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679171</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.50159201675851</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103404</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>121.7849097123511</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833842</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911219</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.000239683233</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000391</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>270.4976243473731</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998997</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
